--- a/sb/spec/fixtures/files/guarantee_registration/ok_no_client.xlsx
+++ b/sb/spec/fixtures/files/guarantee_registration/ok_no_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\securebox\sb\spec\fixtures\files\guarantee_registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82809E-C3F6-495F-A5A1-B5B308B3AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE4BFC-172A-41E7-90D3-75ACABDF3AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1545" windowWidth="22785" windowHeight="14655" xr2:uid="{3B9B60B1-321A-4EE7-8C1C-3D25D6AF4CF8}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3B9B60B1-321A-4EE7-8C1C-3D25D6AF4CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="保証依頼書" sheetId="1" r:id="rId1"/>
@@ -398,14 +398,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,7 +725,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -739,15 +739,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="14"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -822,11 +822,11 @@
         <v>44410</v>
       </c>
       <c r="F5" s="13">
-        <v>5000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -842,7 +842,7 @@
         <v>44411</v>
       </c>
       <c r="F6" s="13">
-        <v>5000000</v>
+        <v>12800000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
